--- a/TEMP/OutputEmpresas.xlsx
+++ b/TEMP/OutputEmpresas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F11BDC-C4A8-4CE1-9C97-FB11DBE1480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301E7285-07F6-4081-BDBB-E9881A0569C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatosObtenidos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Pais</t>
   </si>
@@ -52,97 +52,7 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Fabricación de productos de cuidado personal</t>
-  </si>
-  <si>
-    <t>L'Oréal</t>
-  </si>
-  <si>
-    <t>Viviana Sosa</t>
-  </si>
-  <si>
-    <t>Representante visitador médico</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/lead/ACwAAAG6VmwB5MYkm76Z6nbSPx-b8nAOPiBgHkU,NAME_SEARCH,zKkl?_ntb=5ZYmdtOKSHemP6dQkWh3UQ%3D%3D</t>
-  </si>
-  <si>
-    <t>Analia Malinarich</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/lead/ACwAABDHyesBBGpdLDXGZnXAJQovMHShcrhn3rE,NAME_SEARCH,Jc9h?_ntb=5ZYmdtOKSHemP6dQkWh3UQ%3D%3D</t>
-  </si>
-  <si>
-    <t>Antonela D'Alessandro</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/lead/ACwAABZrGvsBwLtShsPihQGtprPhigs_qX5TW3g,NAME_SEARCH,wQvx?_ntb=5ZYmdtOKSHemP6dQkWh3UQ%3D%3D</t>
-  </si>
-  <si>
-    <t>Martin Faroni</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/lead/ACwAACosZSIBZiLcirpWzbvNlx28VEN8D5HQRCE,NAME_SEARCH,f5hz?_ntb=5ZYmdtOKSHemP6dQkWh3UQ%3D%3D</t>
-  </si>
-  <si>
     <t>Cargo Actual</t>
-  </si>
-  <si>
-    <t>Ariana Edith Baez</t>
-  </si>
-  <si>
-    <t>Visitador Medico Sr.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/lead/ACwAAAfD2OwB5WM9ap9ZmnayWXvY7f-s2dstocw,NAME_SEARCH,KNpr?_ntb=fvZCtSAMTc%2BS0qeQ%2BBfxmA%3D%3D</t>
-  </si>
-  <si>
-    <t>Fernando Martín De Francesco</t>
-  </si>
-  <si>
-    <t>VISITADOR MÉDICO</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/lead/ACwAABS8KYkBcwiW0E9B0OSdSkjme_F1dpeWnEE,NAME_SEARCH,3G0l?_ntb=fvZCtSAMTc%2BS0qeQ%2BBfxmA%3D%3D</t>
-  </si>
-  <si>
-    <t>Rocio Caldi</t>
-  </si>
-  <si>
-    <t>Chief Information Officer Argentina, Chile &amp; Uruguay</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/lead/ACwAAA0KgkIBj-ahxPVGDlJBV7SyJPyjAxjzACs,NAME_SEARCH,NgCj?_ntb=s4V%2BAs9qQaSnoa3ocjAr9w%3D%3D</t>
-  </si>
-  <si>
-    <t>Alejandro Alculumbre</t>
-  </si>
-  <si>
-    <t>CIO Latin America</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/lead/ACwAAAIOyqEBCmufaAEgR3wK4mYB144wMW1o_mk,NAME_SEARCH,puu5?_ntb=s4V%2BAs9qQaSnoa3ocjAr9w%3D%3D</t>
-  </si>
-  <si>
-    <t>Fernando Alberto Godoy</t>
-  </si>
-  <si>
-    <t>LATAM Sales &amp; Retail BRM Director</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/lead/ACwAAADX49cBjbQe_5_99Jqu0t0ks0AJ5kdQ9LU,NAME_SEARCH,08RF?_ntb=s4V%2BAs9qQaSnoa3ocjAr9w%3D%3D</t>
-  </si>
-  <si>
-    <t>Lorena Topp Knudsen</t>
-  </si>
-  <si>
-    <t>Asistente Dirección de Administración y Finanzas - Gerencia de Legales</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/lead/ACwAAAYHzbYBcj4JSYZDJpE-YF2NmkY8zPyZX-I,NAME_SEARCH,RNZT?_ntb=s4V%2BAs9qQaSnoa3ocjAr9w%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -277,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4FA18B36-D4ED-46A5-849E-CF8E4ABA3A15}" name="Tabla4" displayName="Tabla4" ref="A1:F6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F6" xr:uid="{4FA18B36-D4ED-46A5-849E-CF8E4ABA3A15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4FA18B36-D4ED-46A5-849E-CF8E4ABA3A15}" name="Tabla4" displayName="Tabla4" ref="A1:F200" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F200" xr:uid="{4FA18B36-D4ED-46A5-849E-CF8E4ABA3A15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B6C0947B-5EEB-452D-9187-F1F22B462415}" name="Pais"/>
     <tableColumn id="2" xr3:uid="{BBD5DF6C-A35D-412B-AC12-A455A4F2F509}" name="Industria"/>
@@ -292,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2DF5015-478E-48B4-8931-AA5DCA10C45C}" name="Tabla3" displayName="Tabla3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H6" xr:uid="{A2DF5015-478E-48B4-8931-AA5DCA10C45C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2DF5015-478E-48B4-8931-AA5DCA10C45C}" name="Tabla3" displayName="Tabla3" ref="A1:H200" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H200" xr:uid="{A2DF5015-478E-48B4-8931-AA5DCA10C45C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E7B303F-C9D0-4090-9705-8AA81C5CC9A7}" name="Pais"/>
     <tableColumn id="2" xr3:uid="{EA91BA0C-0C92-48F9-A862-D373E9E4CE52}" name="Industria"/>
@@ -571,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F6"/>
+    <sheetView topLeftCell="F183" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,110 +511,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -718,10 +528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD28544-228B-48F1-81C9-F7A81A84F3E5}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F198" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,105 +571,37 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
